--- a/Packages/cn.etetet.startconfig/Luban/Mmo/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Mmo/Datas/StartProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Mmo/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961C628-BCAF-CD4C-861C-B80F714C73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26847CFD-D725-194C-BDF6-BAD5B32AC041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="4700" windowWidth="32760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
